--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587028.2359746825</v>
+        <v>536829.883868121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043053</v>
+        <v>6759716.467212724</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8989940.358341986</v>
+        <v>9417207.701425299</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="F2" t="n">
-        <v>28.33592091243788</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368148</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>79.93338607022699</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714244</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909497</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>12.51356228215094</v>
       </c>
     </row>
     <row r="4">
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.66524342052692</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055309</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845872</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>20.64107630343883</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663195</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>77.75788252861942</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.7788117555066</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>144.1612536011333</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.573327086027014</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>113.1887820330844</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5255871663195</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663195</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>187.52558716632</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>28.33592091243845</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>187.52558716632</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>228.6947322088286</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>89.48249960344559</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>187.52558716632</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01997306218662288</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>196.4436205839872</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>127.5532942524965</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>32.97950884736154</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>105.0095044431336</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>186.6141597285332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>37.84125266805028</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>293.5228477376557</v>
+        <v>346.4719254930603</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>18.54938132396489</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>64.82019709657247</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>35.42676599590803</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6667577510700857</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2323,10 +2323,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>74.55681854024965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>215.2994773637963</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.37445137896861</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>295.3637168968381</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>168.1158122680985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.965193331959</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>119.5949358390743</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>53.85366032725299</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>34.16966515648255</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.3223799131485</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>240.2648719523406</v>
+        <v>85.17289288835083</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>35.22061871095692</v>
       </c>
       <c r="H34" t="n">
-        <v>29.74310329855266</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.6151831671111</v>
+        <v>131.0573912450687</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.85005436466994</v>
+        <v>224.7562560951392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.1550917323862</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>207.9314131009027</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>6.38006817584838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>143.9764333632484</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>16.34825474388555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814351</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>106.5867442799591</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>209.5675193320712</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.6065387483027</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>230.1984816395451</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.17248141420851</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>67.33742371513323</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036607</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>549.2024635036607</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>549.2024635036607</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>549.2024635036607</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678649</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513806</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678481</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644751</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123821</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998557</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602025</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201451</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201451</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201451</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201451</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036607</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036607</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036607</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.2024635036607</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.216431822438</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="C3" t="n">
-        <v>382.216431822438</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="D3" t="n">
-        <v>233.2820221611867</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>233.2820221611867</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>233.2820221611867</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>95.74284098363586</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330556</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024176</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772643</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140236</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546591</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476335</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017047</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>722.919292284326</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389223</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389223</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389223</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>382.216431822438</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>382.216431822438</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>382.216431822438</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.216431822438</v>
+        <v>214.3969786487511</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>78.73841235316195</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818526</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594232</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745581</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692144</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>633.045430226474</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608003</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>750.102348665278</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846256</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768575</v>
+        <v>1034.005947982349</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603732</v>
+        <v>1034.005947982349</v>
       </c>
       <c r="T4" t="n">
-        <v>233.7219182438888</v>
+        <v>808.5369117403633</v>
       </c>
       <c r="U4" t="n">
-        <v>233.7219182438888</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V4" t="n">
-        <v>233.7219182438888</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="W4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.7219182438888</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897899</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897899</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D5" t="n">
-        <v>15.00204697330556</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058916</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079179</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644747</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123819</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998557</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602025</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227586</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062743</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.4218319897899</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>382.216431822438</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="C6" t="n">
-        <v>382.216431822438</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="D6" t="n">
-        <v>382.216431822438</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="E6" t="n">
-        <v>382.216431822438</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F6" t="n">
-        <v>303.6731161369638</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>166.133934959413</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>64.27357399906981</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330513</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024154</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772642</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140235</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>512.500058754659</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476335</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017047</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.102348665278</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>722.919292284326</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>571.6362168389223</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>382.216431822438</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>382.216431822438</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>382.216431822438</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>382.216431822438</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>382.216431822438</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y6" t="n">
-        <v>382.216431822438</v>
+        <v>211.9971269606149</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>38.67250990818525</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330556</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330556</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>187.8896250884405</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>373.5399563830968</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>559.1902876777531</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>721.9284911143031</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>750.102348665278</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846256</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>612.5614882768575</v>
+        <v>940.5234169423029</v>
       </c>
       <c r="S7" t="n">
-        <v>423.1417032603732</v>
+        <v>733.7363823528143</v>
       </c>
       <c r="T7" t="n">
-        <v>233.7219182438888</v>
+        <v>508.2673461108286</v>
       </c>
       <c r="U7" t="n">
-        <v>44.30213322740445</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="V7" t="n">
-        <v>44.30213322740445</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>44.30213322740445</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>44.30213322740445</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.30213322740445</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.1605361513811</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C8" t="n">
-        <v>331.1605361513811</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>331.1605361513811</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>331.1605361513811</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>141.7407511348962</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985584</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020266</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201471</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>710.0001061843507</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>520.5803211678658</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>520.5803211678658</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>520.5803211678658</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="X8" t="n">
-        <v>520.5803211678658</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="Y8" t="n">
-        <v>520.5803211678658</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.27357399906981</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>64.27357399906981</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>64.27357399906981</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>64.27357399906981</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>64.27357399906981</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>64.27357399906981</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>64.27357399906981</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476349</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843279</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>722.9192922843279</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>632.5329290485242</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>443.1131440320394</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>253.6933590155546</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>64.27357399906981</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>64.27357399906981</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>64.27357399906981</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>612.5614882768594</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>612.5614882768594</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>612.5614882768594</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>612.5413134665699</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>465.6513659686595</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>296.9625425315745</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>141.9790366408477</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>43.17590452428104</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>216.0634826394161</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>401.7138139340728</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>587.3641452287296</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>750.1023486652798</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652798</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846275</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768594</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>612.5614882768594</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>612.5614882768594</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>612.5614882768594</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>612.5614882768594</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W10" t="n">
-        <v>612.5614882768594</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="X10" t="n">
-        <v>612.5614882768594</v>
+        <v>249.6746861477881</v>
       </c>
       <c r="Y10" t="n">
-        <v>612.5614882768594</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1204.726236768953</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C11" t="n">
-        <v>835.7637198285415</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D11" t="n">
-        <v>477.498021221791</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E11" t="n">
-        <v>477.498021221791</v>
+        <v>195.3538277983415</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>195.3538277983415</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218342</v>
@@ -5041,10 +5041,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,13 +5053,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3292.293186409815</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3038.762709683652</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2707.699822340081</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2354.931167069967</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1981.465408808887</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1591.326076833075</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>467.3853640207027</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>319.4722704383096</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>172.5823229403992</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308157</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367745</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348091</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372279</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5427,13 +5427,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,19 +5460,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1913.730159486768</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W16" t="n">
         <v>1722.044275313594</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1204.726236768953</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C17" t="n">
-        <v>835.7637198285415</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D17" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796418</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>1981.465408808887</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y17" t="n">
-        <v>1591.326076833075</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064599</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.0519063245727</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>380.0519063245727</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>380.0519063245727</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>232.1388127421795</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>85.24886524426918</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1670.133717353125</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1381.030850478768</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>1381.030850478768</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983425</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X19" t="n">
-        <v>782.4929502983425</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y19" t="n">
-        <v>561.7003711548124</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>899.0708859371141</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>513.2826333388698</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>102.2967285492622</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>102.2967285492622</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>102.2967285492622</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3324.932328931323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3071.401852205159</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3071.401852205159</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W20" t="n">
-        <v>2718.633196935045</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X20" t="n">
-        <v>2345.167438673965</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y20" t="n">
-        <v>2345.167438673965</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763052</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645848</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>1646.471854783102</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796265</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C23" t="n">
-        <v>552.8079389392149</v>
+        <v>1053.237939387932</v>
       </c>
       <c r="D23" t="n">
-        <v>477.498021221791</v>
+        <v>694.9722407811812</v>
       </c>
       <c r="E23" t="n">
         <v>477.498021221791</v>
@@ -5989,25 +5989,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052369</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>313.9544330261738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C25" t="n">
-        <v>313.9544330261738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6150,16 +6150,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368017</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621301</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>590.8070661251695</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>362.8175152271522</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>313.9544330261738</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>481.584566587187</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1884.85115505266</v>
+        <v>821.9838344741147</v>
       </c>
       <c r="C28" t="n">
-        <v>1715.914972124753</v>
+        <v>653.0476515462078</v>
       </c>
       <c r="D28" t="n">
-        <v>1565.798332712418</v>
+        <v>502.9310121338721</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.823389952863</v>
+        <v>355.0179185514789</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952863</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348675</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3133.919937435999</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>2912.153322005525</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>2623.050455131168</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V28" t="n">
-        <v>2623.050455131168</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W28" t="n">
-        <v>2333.633285094208</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X28" t="n">
-        <v>2105.64373419619</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="Y28" t="n">
-        <v>1884.85115505266</v>
+        <v>1003.632299304354</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796261</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C29" t="n">
-        <v>921.7704558796261</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>927.0852846661708</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>516.0993798765633</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>101.0269297215597</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
         <v>618.1564155387305</v>
@@ -6530,46 +6530,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
         <v>2242.828302297192</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2489.924953962485</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C31" t="n">
-        <v>2320.988771034578</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.872131622243</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.95903803985</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3133.919937435997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>3133.919937435997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>3133.919937435997</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>3133.919937435997</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>2844.502767399037</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>2616.513216501019</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y31" t="n">
-        <v>2616.513216501019</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1904.487375535337</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C32" t="n">
-        <v>1535.524858594925</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.259159988175</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
         <v>108.5090151927147</v>
@@ -6697,13 +6697,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>1904.487375535337</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>362.8175152271517</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C34" t="n">
-        <v>193.8813322992448</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D34" t="n">
-        <v>193.8813322992448</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E34" t="n">
-        <v>193.8813322992448</v>
+        <v>346.3041236480685</v>
       </c>
       <c r="F34" t="n">
-        <v>193.8813322992448</v>
+        <v>199.4141761501582</v>
       </c>
       <c r="G34" t="n">
-        <v>193.8813322992448</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.8175152271517</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1548.393281286113</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C35" t="n">
-        <v>1179.430764345701</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D35" t="n">
-        <v>821.1650657389509</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6982,7 +6982,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1548.393281286113</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="36">
@@ -7119,19 +7119,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W37" t="n">
         <v>1478.501411349798</v>
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3005.283422731313</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>3005.283422731313</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2652.514767461199</v>
       </c>
       <c r="X38" t="n">
-        <v>2972.837166339056</v>
+        <v>2279.049009200119</v>
       </c>
       <c r="Y38" t="n">
-        <v>2582.697834363244</v>
+        <v>1888.909677224308</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1640.204086189705</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C40" t="n">
-        <v>1471.267903261798</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>1781.863807317535</v>
       </c>
       <c r="T40" t="n">
-        <v>3103.839206178696</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="U40" t="n">
-        <v>2814.73633930434</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V40" t="n">
-        <v>2560.051851098453</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W40" t="n">
-        <v>2270.634681061492</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X40" t="n">
-        <v>2042.645130163475</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y40" t="n">
-        <v>1821.852551019945</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1238.038871968309</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C41" t="n">
-        <v>869.0763550278969</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D41" t="n">
-        <v>510.8106564211463</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>125.0224038229021</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7411,7 +7411,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539436</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269322</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008242</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.63871203243</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="42">
@@ -7481,19 +7481,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
         <v>765.151745215813</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>880.2242361621296</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>880.2242361621296</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>880.2242361621296</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>880.2242361621296</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.2242361621296</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.511388127729</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.548871187317</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D44" t="n">
-        <v>905.2831725805665</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2409.250560167662</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.11122819185</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="45">
@@ -7718,28 +7718,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2088.986216231253</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C46" t="n">
-        <v>2088.986216231253</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D46" t="n">
-        <v>1938.869576818917</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E46" t="n">
-        <v>1938.869576818917</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541939</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134516</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178697</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>2814.73633930434</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>2560.051851098453</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>2270.634681061493</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>2270.634681061493</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>2270.634681061493</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265849</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457081</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>145.8220995101046</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457081</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711113</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>46.56605103777559</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>42.56275186471078</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457084</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711117</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>149.6511845669353</v>
       </c>
       <c r="F2" t="n">
-        <v>378.5401248292736</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637385</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399028</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038154</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>20.90837128051272</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310577</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>193.1691334951534</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>86.04197635033977</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>106.8635265802251</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917673</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>36.1940863237806</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>150.4546561581541</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>167.1574544543635</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>184.0684315413188</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121495</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897341</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22874,13 +22874,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>67.31132986476446</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681753</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>61.52144217617109</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>120.1338926848397</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.3158208505795</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917673</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>36.1940863237806</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713079</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753915</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>185.1079601437683</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871038</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>120.5462365085844</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>105.9270981885557</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377098</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310532</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459965</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4139895843825</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>22.14103276810764</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>283.368431400957</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>170.9384612922586</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>61.01630381589459</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>168.0688818921498</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -23554,13 +23554,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>289.9110058020846</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>75.50340795433992</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>76.20825294081334</v>
+        <v>23.25917518540876</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>147.4764269350633</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>154.7287521795967</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.150163777017916</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.25121238855</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>280.1262230804333</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>166.6308927084655</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.2102019731262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>59.31932472384489</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>181.1251564493145</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.46876931461017</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>25.82611218385692</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>300.8293812934299</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>260.4380992308379</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.50960026878879</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6654981199212</v>
+        <v>296.757477183911</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>130.8051895480713</v>
       </c>
       <c r="H34" t="n">
-        <v>115.0119116157681</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.6227554889425</v>
+        <v>255.1805474109849</v>
       </c>
     </row>
     <row r="36">
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>183.2875889591581</v>
+        <v>27.38138722868885</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>147.5787499310944</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>43.06375885799929</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.235404842364</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>45.79259196819351</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>390.5277909978259</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>277.2566436803255</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>42.02872873825321</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.1273029151779</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>139.5326190389239</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.24856660872274</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>98.688384543895</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471299.3736439899</v>
+        <v>534429.9763591597</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471299.3736439901</v>
+        <v>534429.9763591597</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471299.3736439903</v>
+        <v>799493.8452023976</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879301.7058160455</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171419.5356187815</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187815</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="D2" t="n">
-        <v>171419.5356187815</v>
+        <v>290673.0489695931</v>
       </c>
       <c r="E2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="F2" t="n">
+        <v>323947.2440223748</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="I2" t="n">
         <v>323947.2440223746</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="K2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="G2" t="n">
-        <v>323947.2440223748</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="I2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323947.2440223746</v>
-      </c>
       <c r="L2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="O2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208448</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.333471679274226e-10</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336675</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11335.86481693334</v>
+        <v>14543.87419713277</v>
       </c>
       <c r="C4" t="n">
-        <v>11335.86481693334</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="D4" t="n">
-        <v>11335.86481693335</v>
+        <v>19788.00270570973</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161353</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161353</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488259.0321306103</v>
+        <v>-574239.1210420867</v>
       </c>
       <c r="C6" t="n">
-        <v>103097.8703902346</v>
+        <v>105848.8595491064</v>
       </c>
       <c r="D6" t="n">
-        <v>103097.8703902341</v>
+        <v>-218408.5527037966</v>
       </c>
       <c r="E6" t="n">
-        <v>-387874.08723979</v>
+        <v>53711.38727862579</v>
       </c>
       <c r="F6" t="n">
-        <v>239260.5563938773</v>
+        <v>235784.3670958167</v>
       </c>
       <c r="G6" t="n">
-        <v>239260.5563938777</v>
+        <v>235784.3670958164</v>
       </c>
       <c r="H6" t="n">
-        <v>239260.5563938774</v>
+        <v>235784.3670958162</v>
       </c>
       <c r="I6" t="n">
-        <v>239260.5563938773</v>
+        <v>235784.3670958164</v>
       </c>
       <c r="J6" t="n">
-        <v>190195.6116653328</v>
+        <v>166785.2126767024</v>
       </c>
       <c r="K6" t="n">
-        <v>239260.5563938777</v>
+        <v>235784.3670958164</v>
       </c>
       <c r="L6" t="n">
-        <v>239260.5563938775</v>
+        <v>140401.7209582466</v>
       </c>
       <c r="M6" t="n">
-        <v>78804.11452600012</v>
+        <v>188232.1013024014</v>
       </c>
       <c r="N6" t="n">
-        <v>239260.5563938773</v>
+        <v>235784.3670958163</v>
       </c>
       <c r="O6" t="n">
-        <v>239260.5563938774</v>
+        <v>235784.3670958163</v>
       </c>
       <c r="P6" t="n">
-        <v>239260.5563938775</v>
+        <v>235784.3670958164</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129041</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,10 +26758,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129041</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043111</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528636</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>387.161899547027</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470021</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622676</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.104857615109</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619218</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924572</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435303</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621733</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975327</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829651</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>280.687253629267</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355007</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288818</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820365</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390156</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.989044155744581</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620009</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639159</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114187</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784851</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647906</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147601</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181391</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061357</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32250,7 +32250,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P17" t="n">
         <v>629.9949819746414</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886791</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078831</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973017</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197543</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504111</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405809</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915961</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065956</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781435</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>245.5483596572285</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996318</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848226</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855677</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764985</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062391</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663195</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4872848053127</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34035730740041</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469471</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880151</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663195</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663195</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>164.3820236732829</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>28.45844197068166</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>28.45844197068227</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>187.52558716632</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>187.52558716632</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>536829.883868121</v>
+        <v>580048.6968314094</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445480.89855084</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6759716.467212724</v>
+        <v>7622616.185043049</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9417207.701425299</v>
+        <v>8989940.358341986</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
-        <v>232.2791855053265</v>
+        <v>153.8072380324135</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.51356228215094</v>
+        <v>176.016653834323</v>
       </c>
     </row>
     <row r="4">
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.64107630343883</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>182.5570120086806</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>28.51986023714669</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>144.1612536011333</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="7">
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1887820330844</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>32.3501675654044</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>6.396723986041692</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>228.6947322088286</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>138.2613113589524</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>33.73763394764264</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.4436205839872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>221.1016003276202</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5532942524965</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>105.0095044431336</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>52.48855624472292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>218.3799969300104</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>37.84125266805028</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>62.65607684454785</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>346.4719254930603</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>378.4287616042034</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>49.96616404348439</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>64.82019709657247</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>238.0876352961039</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>35.42676599590803</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>69.96969900783357</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>215.2994773637963</v>
+        <v>79.52865635059649</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>11.42437928702257</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>295.3637168968381</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>194.7469594744683</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>119.5949358390743</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>76.88086691441949</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>127.5532942524956</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>34.16966515648255</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>77.31354443380461</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>58.9389132689145</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>85.17289288835083</v>
+        <v>124.6100630360555</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>35.22061871095692</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>127.3165365479904</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>314.902920950423</v>
       </c>
       <c r="Y35" t="n">
-        <v>131.0573912450687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>59.90320919298873</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>224.7562560951392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>89.48046147214403</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>207.9314131009027</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>84.69473660442819</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>143.9764333632484</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>39.52405900590627</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3793,19 +3793,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>92.47445699814351</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>84.69473660442819</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>209.5675193320712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.6065387483027</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>190.1921129400374</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>108.1026156447375</v>
       </c>
       <c r="G46" t="n">
-        <v>67.33742371513323</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388466</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>549.2024635036629</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672984</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201479</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.3969786487511</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>214.3969786487511</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>571.6362168389251</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>571.6362168389251</v>
       </c>
       <c r="U3" t="n">
-        <v>481.2742972781153</v>
+        <v>382.2164318224401</v>
       </c>
       <c r="V3" t="n">
-        <v>481.2742972781153</v>
+        <v>382.2164318224401</v>
       </c>
       <c r="W3" t="n">
-        <v>227.0369405499137</v>
+        <v>192.7966468059551</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0369405499137</v>
+        <v>192.7966468059551</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.3969786487511</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>465.2530182692154</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>650.9033495638723</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R4" t="n">
-        <v>1034.005947982349</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S4" t="n">
-        <v>1034.005947982349</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T4" t="n">
-        <v>808.5369117403633</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="U4" t="n">
-        <v>542.1592551731853</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="V4" t="n">
-        <v>287.4747669672984</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="W4" t="n">
-        <v>21.09711040012049</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="D5" t="n">
-        <v>287.4747669672984</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="E5" t="n">
-        <v>21.09711040012049</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09711040012049</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678505</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058966</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>578.2426392372663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>393.8416170062758</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211.9971269606149</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="C6" t="n">
-        <v>211.9971269606149</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D6" t="n">
-        <v>211.9971269606149</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>721.2944090317993</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>721.2944090317993</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>721.2944090317993</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>721.2944090317993</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>531.8746240153142</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>531.8746240153142</v>
       </c>
       <c r="Y6" t="n">
-        <v>211.9971269606149</v>
+        <v>342.4548389988291</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>285.9838492295959</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>471.6341805242529</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>634.3723839608031</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R7" t="n">
-        <v>940.5234169423029</v>
+        <v>615.9383389575128</v>
       </c>
       <c r="S7" t="n">
-        <v>733.7363823528143</v>
+        <v>426.5185539410277</v>
       </c>
       <c r="T7" t="n">
-        <v>508.2673461108286</v>
+        <v>237.0987689245426</v>
       </c>
       <c r="U7" t="n">
-        <v>241.8896895436506</v>
+        <v>47.67898390805755</v>
       </c>
       <c r="V7" t="n">
-        <v>241.8896895436506</v>
+        <v>47.67898390805755</v>
       </c>
       <c r="W7" t="n">
-        <v>241.8896895436506</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.991392838317</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>210.8831693494288</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>210.8831693494288</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>21.46338433294369</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>21.46338433294369</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>589.7227393823989</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="W8" t="n">
-        <v>1621.991392838317</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="X8" t="n">
-        <v>1621.991392838317</v>
+        <v>400.3029543659138</v>
       </c>
       <c r="Y8" t="n">
-        <v>1621.991392838317</v>
+        <v>400.3029543659138</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>722.919292284329</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>722.919292284329</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>583.2614020227609</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>393.8416170062758</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>333.8075098227264</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>183.6908704103907</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>183.6908704103907</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>183.6908704103907</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>187.8896250884408</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>373.5399563830978</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>559.1902876777548</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>721.928491114305</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>557.3057129681434</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827661</v>
+        <v>367.8859279516583</v>
       </c>
       <c r="W10" t="n">
-        <v>477.6642370458055</v>
+        <v>367.8859279516583</v>
       </c>
       <c r="X10" t="n">
-        <v>249.6746861477881</v>
+        <v>367.8859279516583</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.2467865680031</v>
+        <v>367.8859279516583</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1308.370295943748</v>
+        <v>1870.65619074133</v>
       </c>
       <c r="C11" t="n">
-        <v>939.4077790033361</v>
+        <v>1501.693673800918</v>
       </c>
       <c r="D11" t="n">
-        <v>581.1420803965857</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>195.3538277983415</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>195.3538277983415</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218342</v>
@@ -5041,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5056,7 +5056,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.5020034330385</v>
+        <v>732.153377231642</v>
       </c>
       <c r="C13" t="n">
-        <v>617.5020034330385</v>
+        <v>732.153377231642</v>
       </c>
       <c r="D13" t="n">
-        <v>467.3853640207027</v>
+        <v>582.0367378193063</v>
       </c>
       <c r="E13" t="n">
-        <v>319.4722704383096</v>
+        <v>434.1236442369132</v>
       </c>
       <c r="F13" t="n">
-        <v>172.5823229403992</v>
+        <v>287.2336967390028</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>119.5308601137217</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5199,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,10 +5220,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5232,19 +5232,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W13" t="n">
-        <v>845.4915543310558</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X13" t="n">
-        <v>617.5020034330385</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="Y13" t="n">
-        <v>617.5020034330385</v>
+        <v>913.8018420618818</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3177.09166559278</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="15">
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.730159486768</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1722.044275313594</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.044275313594</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>741.7508393439798</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>678.4618728343355</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1261.532988317206</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C17" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5506,61 +5506,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269322</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X17" t="n">
-        <v>2038.27216035714</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y17" t="n">
-        <v>1648.132828381328</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064599</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1876.823675317296</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1685.137791144123</v>
       </c>
       <c r="T19" t="n">
-        <v>1670.133717353125</v>
+        <v>1685.137791144123</v>
       </c>
       <c r="U19" t="n">
-        <v>1381.030850478768</v>
+        <v>1396.034924269766</v>
       </c>
       <c r="V19" t="n">
-        <v>1381.030850478768</v>
+        <v>1141.350436063879</v>
       </c>
       <c r="W19" t="n">
-        <v>1091.613680441807</v>
+        <v>851.9332660269189</v>
       </c>
       <c r="X19" t="n">
-        <v>1091.613680441807</v>
+        <v>623.9437151289015</v>
       </c>
       <c r="Y19" t="n">
-        <v>1091.613680441807</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1626.299101484276</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C20" t="n">
-        <v>1257.336584543865</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D20" t="n">
-        <v>899.0708859371141</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>513.2826333388698</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>102.2967285492622</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>102.2967285492622</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>102.2967285492622</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.03827352421</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2403.03827352421</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y20" t="n">
-        <v>2012.898941548398</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5946,16 +5946,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676413</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6479724696239</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.8553933260938</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1422.200456328343</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C23" t="n">
-        <v>1053.237939387932</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D23" t="n">
-        <v>694.9722407811812</v>
+        <v>897.4104964852686</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653545</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392465</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>1808.800296392465</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>372.8549345700854</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>224.9418409876923</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>78.05189348978197</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1530.147236421175</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.044369546818</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V25" t="n">
-        <v>986.3598813409312</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1501.213961756484</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C26" t="n">
-        <v>1501.213961756484</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D26" t="n">
-        <v>1202.866772971799</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796418</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2277.953133796418</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y26" t="n">
-        <v>1887.813801820606</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>821.9838344741147</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C28" t="n">
-        <v>653.0476515462078</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D28" t="n">
-        <v>502.9310121338721</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E28" t="n">
-        <v>355.0179185514789</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1568.120765345151</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1279.017898470794</v>
       </c>
       <c r="V28" t="n">
-        <v>1513.842048484845</v>
+        <v>1024.333410264907</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.424878447885</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="X28" t="n">
-        <v>1224.424878447885</v>
+        <v>734.9162402279468</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.632299304354</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C29" t="n">
-        <v>1312.873537264415</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D29" t="n">
-        <v>1312.873537264415</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E29" t="n">
-        <v>927.0852846661708</v>
+        <v>195.3538277983405</v>
       </c>
       <c r="F29" t="n">
-        <v>516.0993798765633</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G29" t="n">
-        <v>101.0269297215597</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6466,13 +6466,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6505,10 +6505,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>463.6594280995014</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C31" t="n">
-        <v>294.7232451715945</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D31" t="n">
-        <v>144.6066057592588</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1867.760292261306</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1867.760292261306</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.993676830833</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1356.890809956476</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>1102.206321750589</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>812.7891517136284</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>584.799600815611</v>
       </c>
       <c r="Y31" t="n">
-        <v>645.3078929297411</v>
+        <v>584.799600815611</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796252</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C32" t="n">
-        <v>552.8079389392135</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D32" t="n">
-        <v>194.542240332463</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="E32" t="n">
-        <v>108.5090151927147</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6703,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6745,7 +6745,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>644.3338566427974</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C34" t="n">
-        <v>644.3338566427974</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D34" t="n">
-        <v>494.2172172304616</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E34" t="n">
-        <v>346.3041236480685</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>199.4141761501582</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y34" t="n">
-        <v>644.3338566427974</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1179.52858457759</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>810.5660676371781</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>66.5121164321834</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y35" t="n">
-        <v>1566.128424641711</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>127.0204085463135</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1502.309837160186</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C38" t="n">
-        <v>1133.347320219774</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D38" t="n">
-        <v>775.0816216130238</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E38" t="n">
-        <v>775.0816216130238</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3005.283422731313</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>3005.283422731313</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2652.514767461199</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2279.049009200119</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1888.909677224308</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.5649387724261</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445192</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1781.863807317535</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1560.097191887061</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U40" t="n">
-        <v>1560.097191887061</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V40" t="n">
-        <v>1305.412703681174</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W40" t="n">
-        <v>1015.995533644213</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X40" t="n">
-        <v>788.005982746196</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026658</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1519.109083729354</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.146566788942</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D44" t="n">
-        <v>791.8808681821918</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>971.281412372397</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7657,7 +7657,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7672,13 +7672,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
         <v>2755.806928794324</v>
@@ -7687,7 +7687,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
         <v>1698.509627919559</v>
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>231.8553933260938</v>
+        <v>810.3754302374108</v>
       </c>
       <c r="C46" t="n">
-        <v>231.8553933260938</v>
+        <v>641.4392473095039</v>
       </c>
       <c r="D46" t="n">
-        <v>231.8553933260938</v>
+        <v>491.3226078971682</v>
       </c>
       <c r="E46" t="n">
-        <v>231.8553933260938</v>
+        <v>343.409514314775</v>
       </c>
       <c r="F46" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7839,19 +7839,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260938</v>
+        <v>810.3754302374108</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>98.860651885941</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>82.97369176944412</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777649</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>167.1574544543628</v>
       </c>
       <c r="E2" t="n">
-        <v>149.6511845669353</v>
+        <v>228.1231320398483</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>193.1691334951534</v>
+        <v>29.66604194298137</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>106.8635265802251</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.19408632377997</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>98.73949432713016</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>86.96510614773325</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271703</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.4546561581541</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753912</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>203.680926647373</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>121.2503844538029</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.52144217617109</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R7" t="n">
-        <v>14.3158208505795</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>19.25466862917602</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.19408632377989</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>98.73949432713007</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>254.1728307711866</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046873</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>406.7011092440163</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.64367339871012</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>120.5462365085844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>57.14828643304878</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>146.0943462342947</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>98.73949432713007</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>64.61205615750779</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.14103276810764</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>133.5814412930628</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.368431400957</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>61.01630381589459</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>92.26645866959785</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>163.5503731422513</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>289.9110058020846</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.50340795433992</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>155.9285765075469</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>23.25917518540876</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.809177051850156</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>38.96598862656294</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>154.7287521795967</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>116.5954063245791</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>6.150163777017916</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>97.27712209079426</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>166.6308927084655</v>
+        <v>302.4017137216653</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>154.6014289720057</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>59.31932472384489</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>174.9841412040008</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>25.82611218385692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>142.6680823617497</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>279.3227514892159</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>260.4380992308379</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>69.12041821276456</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>29.99323940113283</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>296.757477183911</v>
+        <v>257.3203070362063</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>130.8051895480713</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>91.26811680410439</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>54.82817972804605</v>
       </c>
       <c r="Y35" t="n">
-        <v>255.1805474109849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>84.85180572133206</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>27.38138722868885</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>317.3955842695674</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>43.06375885799929</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>63.92073641378417</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.79259196819351</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>367.3519867358052</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>277.2566436803255</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>63.92073641378417</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>16.14213605696597</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.1273029151779</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>216.683932801674</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>37.31843237819379</v>
       </c>
       <c r="G46" t="n">
-        <v>98.688384543895</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>534429.9763591597</v>
+        <v>471299.3736439905</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>534429.9763591597</v>
+        <v>471299.3736439907</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799493.8452023976</v>
+        <v>471299.3736439905</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160453</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160453</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>290673.0489695931</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223748</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="N2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="P2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="P2" t="n">
-        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>627134.6436336671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14543.87419713277</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="C4" t="n">
-        <v>14543.87419713278</v>
+        <v>11335.86481693336</v>
       </c>
       <c r="D4" t="n">
-        <v>19788.00270570973</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26493,7 +26493,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,7 +26502,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574239.1210420867</v>
+        <v>-489409.4284730676</v>
       </c>
       <c r="C6" t="n">
-        <v>105848.8595491064</v>
+        <v>101947.474047778</v>
       </c>
       <c r="D6" t="n">
-        <v>-218408.5527037966</v>
+        <v>101947.474047778</v>
       </c>
       <c r="E6" t="n">
-        <v>53711.38727862579</v>
+        <v>-388221.7061695957</v>
       </c>
       <c r="F6" t="n">
-        <v>235784.3670958167</v>
+        <v>238912.9374640713</v>
       </c>
       <c r="G6" t="n">
-        <v>235784.3670958164</v>
+        <v>238912.9374640711</v>
       </c>
       <c r="H6" t="n">
-        <v>235784.3670958162</v>
+        <v>238912.9374640714</v>
       </c>
       <c r="I6" t="n">
-        <v>235784.3670958164</v>
+        <v>238912.9374640713</v>
       </c>
       <c r="J6" t="n">
-        <v>166785.2126767024</v>
+        <v>189847.9927355266</v>
       </c>
       <c r="K6" t="n">
-        <v>235784.3670958164</v>
+        <v>238912.9374640712</v>
       </c>
       <c r="L6" t="n">
-        <v>140401.7209582466</v>
+        <v>238912.9374640712</v>
       </c>
       <c r="M6" t="n">
-        <v>188232.1013024014</v>
+        <v>78456.495596194</v>
       </c>
       <c r="N6" t="n">
-        <v>235784.3670958163</v>
+        <v>238912.9374640713</v>
       </c>
       <c r="O6" t="n">
-        <v>235784.3670958163</v>
+        <v>238912.9374640714</v>
       </c>
       <c r="P6" t="n">
-        <v>235784.3670958164</v>
+        <v>238912.9374640713</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>541.3067596803932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32250,7 +32250,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
         <v>629.9949819746414</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572285</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>100.2010091933416</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855745</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>99.08507489005569</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>304.632674239197</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>28.4584419706827</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
